--- a/aiurt-module-system/src/main/resources/templates/csStationPosition.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/csStationPosition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E8A889-25E7-4A37-AA7E-9CFB1ACB5186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D407A6C4-E08F-42DA-BCF4-B9D4B46EAA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="285" windowWidth="28800" windowHeight="14415" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="14415" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="位置导入模板" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>位置名称</t>
   </si>
   <si>
-    <t>位置编号</t>
-  </si>
-  <si>
     <t>经度</t>
   </si>
   <si>
@@ -121,6 +118,10 @@
 6.经度：非必填；
 7.维度：非必填；
 8.排序：非必填；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +620,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,7 +648,7 @@
     </row>
     <row r="2" spans="1:19" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -662,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -671,16 +672,16 @@
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,55 +763,55 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/aiurt-module-system/src/main/resources/templates/csStationPosition.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/csStationPosition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D407A6C4-E08F-42DA-BCF4-B9D4B46EAA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01D8815-0954-4976-8230-356BB95901B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="14415" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="0" yWindow="930" windowWidth="28800" windowHeight="14415" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="位置导入模板" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>经度</t>
   </si>
   <si>
-    <t>维度</t>
-  </si>
-  <si>
     <t>排序</t>
   </si>
   <si>
@@ -103,6 +100,14 @@
   </si>
   <si>
     <t>上级位置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -116,12 +121,8 @@
 4.位置名称：必填；
 5.位置编号：必填；
 6.经度：非必填；
-7.维度：非必填；
+7.纬度：非必填；
 8.排序：非必填；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +621,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -648,7 +649,7 @@
     </row>
     <row r="2" spans="1:19" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -663,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -672,16 +673,16 @@
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,55 +764,55 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
